--- a/biology/Zoologie/Chalcides_viridanus/Chalcides_viridanus.xlsx
+++ b/biology/Zoologie/Chalcides_viridanus/Chalcides_viridanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides viridanus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides viridanus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles Canaries. Elle se rencontre sur les îles de Tenerife, de Fuerteventura, de Lanzarote, de La Gomera, d'El Hierro et de Los Lobos[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles Canaries. Elle se rencontre sur les îles de Tenerife, de Fuerteventura, de Lanzarote, de La Gomera, d'El Hierro et de Los Lobos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour de nombreux auteurs Chalcides simonyi Steindachner, 1891 est une espèce à part entière[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour de nombreux auteurs Chalcides simonyi Steindachner, 1891 est une espèce à part entière,.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard vit dans de nombreux types d'habitats : forêts, zones rocheuses, zones sablonneuses, cultures, ainsi que dans les zones urbaines. Il peut se rencontrer jusqu'à 2 000 m d'altitude. Il atteint environ 18 cm et est principalement diurne.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, viridanus, vient du latin viridis, « vert »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, viridanus, vient du latin viridis, « vert ».
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gravenhorst, 1851 : Über die im Zoologischen Museum der Universität Breslau befindlichen Wirtelschleichen (Pseudosaura), Krüppelfüssler (Brachypoda) und einige andere, denselben verwandte Reptilien aus dem Zünften der Schleichen und Dickzüngler. Nova Acta Academiae Caesarae Liopoldina Carolinae Germaninicae Naturae, vol. 23, p. 291-394 (texte original).</t>
         </is>
